--- a/StructureDefinition-covid19-encounter.xlsx
+++ b/StructureDefinition-covid19-encounter.xlsx
@@ -39,13 +39,13 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Covid19Encounter</t>
+    <t>COVID19Encounter</t>
   </si>
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>COVID19 Encounter</t>
+    <t>COVID-19 Encounter</t>
   </si>
   <si>
     <t>Status</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Whether a patient underwent medical treatment for COVID19</t>
+    <t>Whether a patient underwent medical treatment for COVID-19</t>
   </si>
   <si>
     <t>Purpose</t>
